--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.042121-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Davies.Spring.042121-2.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -932,12 +932,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1054,12 +1054,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2337,12 +2337,12 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2658,12 +2658,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2848,12 +2848,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3207,12 +3207,12 @@
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3363,12 +3363,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3907,12 +3907,12 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3945,12 +3945,12 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4068,12 +4068,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5000,12 +5000,12 @@
       <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5038,12 +5038,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5123,12 +5123,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5684,12 +5684,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5844,12 +5844,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5963,12 +5963,12 @@
       <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6215,12 +6215,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6299,12 +6299,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6473,12 +6473,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6515,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6599,12 +6599,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7030,12 +7030,12 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7263,12 +7263,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7859,12 +7859,12 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7944,12 +7944,12 @@
       <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8268,12 +8268,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8436,12 +8436,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8638,12 +8638,12 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9549,12 +9549,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9759,12 +9759,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10176,12 +10176,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10260,12 +10260,12 @@
       <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10649,12 +10649,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11042,12 +11042,12 @@
       <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11080,12 +11080,12 @@
       <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11118,12 +11118,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11270,12 +11270,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11808,12 +11808,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11892,12 +11892,12 @@
       <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12140,12 +12140,12 @@
       <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12254,12 +12254,12 @@
       <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12601,12 +12601,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12720,12 +12720,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12758,12 +12758,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12914,12 +12914,12 @@
       <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13200,12 +13200,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13352,12 +13352,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13542,12 +13542,12 @@
       <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13854,12 +13854,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13896,12 +13896,12 @@
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13934,12 +13934,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13972,12 +13972,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14010,12 +14010,12 @@
       <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J339" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14048,12 +14048,12 @@
       </c>
       <c r="I340" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14162,12 +14162,12 @@
       <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J343" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14238,12 +14238,12 @@
       <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14513,12 +14513,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14807,12 +14807,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15013,12 +15013,12 @@
       </c>
       <c r="I364" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15181,12 +15181,12 @@
       <c r="H368" t="inlineStr"/>
       <c r="I368" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15391,12 +15391,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15601,12 +15601,12 @@
       <c r="H378" t="inlineStr"/>
       <c r="I378" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J378" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16173,12 +16173,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16292,12 +16292,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16583,12 +16583,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17186,12 +17186,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17309,12 +17309,12 @@
       <c r="H420" t="inlineStr"/>
       <c r="I420" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17385,12 +17385,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
